--- a/xlsx/country_comparison/conjoint_left_ag_b_binary_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_left_ag_b_binary_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.583564934623285</v>
+        <v>0.576260769994676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.60085514854368</v>
+        <v>0.601136221838493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.626458785077602</v>
+        <v>0.609808785858749</v>
       </c>
       <c r="E2" t="n">
-        <v>0.571808732582098</v>
+        <v>0.593269893728387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.641263799532265</v>
+        <v>0.635666029890644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58845359372917</v>
+        <v>0.576958671759513</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_left_ag_b_binary_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_left_ag_b_binary_positive.xlsx
@@ -398,7 +398,7 @@
         <v>0.576260769994676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.601136221838493</v>
+        <v>0.602521116263654</v>
       </c>
       <c r="D2" t="n">
         <v>0.609808785858749</v>
@@ -407,7 +407,7 @@
         <v>0.593269893728387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.635666029890644</v>
+        <v>0.65080574369961</v>
       </c>
       <c r="G2" t="n">
         <v>0.576958671759513</v>
